--- a/Parallel-Dev/OpenCL/Measurement.xlsx
+++ b/Parallel-Dev/OpenCL/Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bandi\Desktop\Parallel\Parallel-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C98B43F-30C3-4C7A-AE63-11CA9F9FB3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7086B-D2CC-489D-91F9-7E8DB9123E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="924" windowWidth="11268" windowHeight="8964" xr2:uid="{FE2EECAB-CD40-4BEF-8949-81DD15AFB8AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE2EECAB-CD40-4BEF-8949-81DD15AFB8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Subintervals</t>
   </si>
@@ -47,43 +47,16 @@
     <t>OpenCL</t>
   </si>
   <si>
-    <t>5.000</t>
-  </si>
-  <si>
     <t>10.000</t>
-  </si>
-  <si>
-    <t>25.000</t>
-  </si>
-  <si>
-    <t>50.000</t>
   </si>
   <si>
     <t>100.000</t>
   </si>
   <si>
-    <t>250.000</t>
-  </si>
-  <si>
-    <t>500.000</t>
-  </si>
-  <si>
     <t>1.000.000</t>
   </si>
   <si>
-    <t>2.500.000</t>
-  </si>
-  <si>
     <t>10.000.000</t>
-  </si>
-  <si>
-    <t>20.000.000</t>
-  </si>
-  <si>
-    <t>0,0173820</t>
-  </si>
-  <si>
-    <t>0,0000720</t>
   </si>
   <si>
     <t>Time (s)</t>
@@ -98,13 +71,13 @@
     <t>Rectangle</t>
   </si>
   <si>
-    <t>0,0001750</t>
-  </si>
-  <si>
     <t>Trapezoidal</t>
   </si>
   <si>
     <t>Speedup</t>
+  </si>
+  <si>
+    <t>100.000.000</t>
   </si>
 </sst>
 </file>
@@ -189,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,17 +192,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,40 +242,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,19 +269,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -345,10 +277,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,8 +292,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,107 +426,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$B$3:$B$17</c:f>
+              <c:f>Munka1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000</c:v>
+                  <c:v>100.000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000</c:v>
+                  <c:v>1.000.000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.000</c:v>
+                  <c:v>10.000.000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250.000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.000.000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.500.000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.000.000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.000.000</c:v>
+                  <c:v>100.000.000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$C$3:$C$17</c:f>
+              <c:f>Munka1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-6</c:v>
+                  <c:v>3.1999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9000000000000002E-6</c:v>
+                  <c:v>4.7999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6E-6</c:v>
+                  <c:v>3.8099999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6900000000000002E-5</c:v>
+                  <c:v>3.5270000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.771E-4</c:v>
+                  <c:v>3.8509E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4190000000000001E-4</c:v>
+                  <c:v>3.4544100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7250000000000001E-4</c:v>
+                  <c:v>0.34499730000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7472E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4868E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.6323000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.53102E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6749900000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3461824</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69765339999999998</c:v>
+                  <c:v>3.4833254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,107 +527,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$B$3:$B$17</c:f>
+              <c:f>Munka1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000</c:v>
+                  <c:v>100.000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000</c:v>
+                  <c:v>1.000.000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.000</c:v>
+                  <c:v>10.000.000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250.000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.000.000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.500.000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.000.000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.000.000</c:v>
+                  <c:v>100.000.000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$D$3:$D$17</c:f>
+              <c:f>Munka1!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.9200000000000002E-5</c:v>
+                  <c:v>1.0208000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0800000000000001E-5</c:v>
+                  <c:v>1.0528E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9400000000000001E-5</c:v>
+                  <c:v>1.0943999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7500000000000002E-5</c:v>
+                  <c:v>1.3312E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0300000000000003E-5</c:v>
+                  <c:v>3.9616E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2200000000000002E-5</c:v>
+                  <c:v>2.85376E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3399999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.1199999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0939999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0359999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2019999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8052000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6647E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.23214E-2</c:v>
+                  <c:v>0.31112640000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1137792000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +994,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$C$22</c:f>
+              <c:f>Munka1!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,107 +1020,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$B$23:$B$37</c:f>
+              <c:f>Munka1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000</c:v>
+                  <c:v>100.000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000</c:v>
+                  <c:v>1.000.000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.000</c:v>
+                  <c:v>10.000.000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250.000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.000.000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.500.000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.000.000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.000.000</c:v>
+                  <c:v>100.000.000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$C$23:$C$37</c:f>
+              <c:f>Munka1!$C$16:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.3999999999999999E-6</c:v>
+                  <c:v>1.5999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7E-6</c:v>
+                  <c:v>4.7999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5000000000000001E-6</c:v>
+                  <c:v>4.0599999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5800000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>3.6519999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2450999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5349999999999997E-4</c:v>
+                  <c:v>3.6039599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.719E-4</c:v>
+                  <c:v>0.36180420000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7354E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4743E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8822000999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.72263E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4488600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.0004299999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.36140850000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73961480000000002</c:v>
+                  <c:v>3.6291107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1095,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$D$22</c:f>
+              <c:f>Munka1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,107 +1121,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$B$23:$B$37</c:f>
+              <c:f>Munka1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000</c:v>
+                  <c:v>100.000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000</c:v>
+                  <c:v>1.000.000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.000</c:v>
+                  <c:v>10.000.000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250.000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.000.000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.500.000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.000.000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.000.000</c:v>
+                  <c:v>100.000.000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$D$23:$D$37</c:f>
+              <c:f>Munka1!$D$16:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.9400000000000001E-5</c:v>
+                  <c:v>1.0560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0399999999999999E-5</c:v>
+                  <c:v>1.1168E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.57E-5</c:v>
+                  <c:v>1.1168E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9500000000000003E-5</c:v>
+                  <c:v>1.2160000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7899999999999999E-5</c:v>
+                  <c:v>3.9776000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0699999999999999E-5</c:v>
+                  <c:v>2.82624E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3900000000000002E-5</c:v>
+                  <c:v>0.31106879999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5500000000000006E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6199999999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5609999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8180000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.4789999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2458E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4094E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.9947000000000004E-3</c:v>
+                  <c:v>3.1134719999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$C$42</c:f>
+              <c:f>Munka1!$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1839,107 +1609,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$B$43:$B$57</c:f>
+              <c:f>Munka1!$B$29:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000</c:v>
+                  <c:v>100.000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000</c:v>
+                  <c:v>1.000.000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.000</c:v>
+                  <c:v>10.000.000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250.000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.000.000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.500.000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.000.000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.000.000</c:v>
+                  <c:v>100.000.000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$C$43:$C$57</c:f>
+              <c:f>Munka1!$C$29:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.5E-6</c:v>
+                  <c:v>1.5999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1999999999999996E-6</c:v>
+                  <c:v>7.0999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9E-6</c:v>
+                  <c:v>3.9900000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6699999999999998E-5</c:v>
+                  <c:v>3.5950000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8139999999999999E-4</c:v>
+                  <c:v>3.4981000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5639999999999999E-4</c:v>
+                  <c:v>3.5030100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8929999999999999E-4</c:v>
+                  <c:v>0.35050140000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7788000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9430999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9481999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8043799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4689699999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8475200000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.35477979999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71045800000000003</c:v>
+                  <c:v>3.5563061999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,7 +1684,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$D$42</c:f>
+              <c:f>Munka1!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1982,107 +1710,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$B$43:$B$57</c:f>
+              <c:f>Munka1!$B$29:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>10.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000</c:v>
+                  <c:v>100.000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000</c:v>
+                  <c:v>1.000.000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.000</c:v>
+                  <c:v>10.000.000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250.000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.000.000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.500.000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.000.000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.000.000</c:v>
+                  <c:v>100.000.000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$D$43:$D$57</c:f>
+              <c:f>Munka1!$D$29:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8699999999999998E-5</c:v>
+                  <c:v>1.0208000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8699999999999998E-5</c:v>
+                  <c:v>9.2159999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.74E-5</c:v>
+                  <c:v>9.2159999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5099999999999998E-5</c:v>
+                  <c:v>1.3087999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8499999999999999E-5</c:v>
+                  <c:v>3.9135999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9599999999999999E-5</c:v>
+                  <c:v>2.8230399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1900000000000001E-5</c:v>
+                  <c:v>0.31111936000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1099999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8300000000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7250000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.2319999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.1530000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3469000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6439000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.1734000000000008E-3</c:v>
+                  <c:v>3.1149056000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4081,13 +3767,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>262890</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4114,16 +3800,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4152,14 +3838,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4504,10 +4190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977AFFDD-2C37-4B85-AA89-5AE484EC4F08}">
-  <dimension ref="B1:P58"/>
+  <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4518,788 +4204,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
-        <v>1.7999999999999999E-6</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.9200000000000002E-5</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="C3" s="3">
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0208000000000001E-3</v>
+      </c>
+      <c r="E3" s="13">
         <f>C3/D3</f>
-        <v>3.0405405405405404E-2</v>
+        <v>3.1347962382445136E-3</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.9000000000000002E-6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6.0800000000000001E-5</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" ref="E4:E17" si="0">C4/D4</f>
-        <v>4.7697368421052634E-2</v>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0528E-3</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E10" si="0">C4/D4</f>
+        <v>4.559270516717325E-3</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4.6E-6</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.9400000000000001E-5</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="B5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.8099999999999998E-5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0943999999999999E-3</v>
+      </c>
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>9.3117408906882582E-2</v>
+        <v>3.4813596491228067E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.6900000000000002E-5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5.7500000000000002E-5</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.5270000000000001E-4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.3312E-3</v>
+      </c>
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>0.64173913043478259</v>
+        <v>0.26494891826923078</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>3</v>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>1.771E-4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5.0300000000000003E-5</v>
-      </c>
-      <c r="E7" s="20">
+        <v>3.8509E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.9616E-3</v>
+      </c>
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>3.5208747514910534</v>
+        <v>0.97205674474959614</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.4190000000000001E-4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5.2200000000000002E-5</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.4544100000000001E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.85376E-2</v>
+      </c>
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>8.4655172413793096</v>
+        <v>1.2104767044180309</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8.7250000000000001E-4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7.3399999999999995E-5</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.34499730000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.31112640000000003</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>11.886920980926432</v>
+        <v>1.1088654000431979</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.7472E-3</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.4833254</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3.1137792000000002</v>
+      </c>
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>24.266666666666666</v>
+        <v>1.1186809263803932</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <v>3.4868E-3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>9.1199999999999994E-5</v>
-      </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>38.232456140350877</v>
-      </c>
+      <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8.6323000000000007E-3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3.0939999999999999E-4</v>
-      </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
-        <v>27.900129282482226</v>
-      </c>
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.0359999999999999E-4</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
-        <v>34.515488482922962</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3.53102E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8.2019999999999999E-4</v>
-      </c>
-      <c r="E14" s="20">
-        <f t="shared" si="0"/>
-        <v>43.050719336747136</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>8.6749900000000005E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.8052000000000001E-3</v>
-      </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
-        <v>48.05556171061378</v>
+    <row r="15" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
-        <v>12</v>
+      <c r="B16" s="3">
+        <v>10</v>
       </c>
       <c r="C16" s="3">
-        <v>0.3461824</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6.6647E-3</v>
-      </c>
-      <c r="E16" s="20">
-        <f t="shared" si="0"/>
-        <v>51.942683091511995</v>
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.0560000000000001E-3</v>
+      </c>
+      <c r="E16" s="13">
+        <f>C16/D16</f>
+        <v>1.5151515151515149E-3</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.69765339999999998</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.23214E-2</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" si="0"/>
-        <v>56.621276802960701</v>
+      <c r="B17" s="3">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.1168E-3</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" ref="E17:E23" si="1">C17/D17</f>
+        <v>4.2979942693409734E-3</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="22"/>
+      <c r="B18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.0599999999999998E-5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.1168E-3</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6353868194842404E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.6519999999999999E-4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.2160000000000001E-3</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30032894736842103</v>
+      </c>
     </row>
-    <row r="22" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>22</v>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="19">
+        <v>4.2450999999999999E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.9776000000000004E-3</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0672516090104585</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.6039599999999998E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.82624E-2</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2751783288043477</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.36180420000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.31106879999999998</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1631002530629881</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.3999999999999999E-6</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4.9400000000000001E-5</v>
-      </c>
-      <c r="E23" s="20">
-        <f>C23/D23</f>
-        <v>2.8340080971659916E-2</v>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.6291107</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3.1134719999999998</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1656153323363756</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <v>50</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2.7E-6</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5.0399999999999999E-5</v>
-      </c>
-      <c r="E24" s="20">
-        <f t="shared" ref="E24:E37" si="1">C24/D24</f>
-        <v>5.3571428571428575E-2</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4.5000000000000001E-6</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4.57E-5</v>
-      </c>
-      <c r="E25" s="20">
-        <f t="shared" si="1"/>
-        <v>9.8468271334792121E-2</v>
-      </c>
+    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
     </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3.5800000000000003E-5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5.9500000000000003E-5</v>
-      </c>
-      <c r="E26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.60168067226890753</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4.7899999999999999E-5</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" si="1"/>
-        <v>3.6534446764091859</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3.5349999999999997E-4</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5.0699999999999999E-5</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" si="1"/>
-        <v>6.9723865877712026</v>
+    <row r="28" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>5</v>
+      <c r="B29" s="3">
+        <v>10</v>
       </c>
       <c r="C29" s="3">
-        <v>8.719E-4</v>
-      </c>
-      <c r="D29" s="5">
-        <v>5.3900000000000002E-5</v>
-      </c>
-      <c r="E29" s="20">
-        <f t="shared" si="1"/>
-        <v>16.176252319109462</v>
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.0208000000000001E-3</v>
+      </c>
+      <c r="E29" s="13">
+        <f>C29/D29</f>
+        <v>1.5673981191222568E-3</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8" t="s">
-        <v>6</v>
+      <c r="B30" s="3">
+        <v>100</v>
       </c>
       <c r="C30" s="3">
-        <v>1.7354E-3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>6.5500000000000006E-5</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" si="1"/>
-        <v>26.494656488549616</v>
+        <v>7.0999999999999998E-6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>9.2159999999999996E-4</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" ref="E30:E36" si="2">C30/D30</f>
+        <v>7.7039930555555559E-3</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
-        <v>7</v>
+      <c r="B31" s="3">
+        <v>1000</v>
       </c>
       <c r="C31" s="3">
-        <v>3.4743E-3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>6.6199999999999996E-5</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="1"/>
-        <v>52.481873111782484</v>
+        <v>3.9900000000000001E-5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9.2159999999999996E-4</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="2"/>
+        <v>4.3294270833333336E-2</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3">
-        <v>8.8822000999999994E-3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2.5609999999999999E-4</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" si="1"/>
-        <v>34.682546270987892</v>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.5950000000000001E-4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.3087999999999999E-3</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="2"/>
+        <v>0.27467909535452323</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="17">
-        <v>1.72263E-2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3.8180000000000001E-4</v>
-      </c>
-      <c r="E33" s="20">
-        <f t="shared" si="1"/>
-        <v>45.118648507071761</v>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3.4981000000000001E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.9135999999999997E-3</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="2"/>
+        <v>0.89383176614881443</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3.4488600000000001E-2</v>
-      </c>
-      <c r="D34" s="5">
-        <v>6.4789999999999997E-4</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" si="1"/>
-        <v>53.231362864639607</v>
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.5030100000000002E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.8230399999999999E-2</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2408644581727499</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3">
-        <v>9.0004299999999995E-2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1.2458E-3</v>
-      </c>
-      <c r="E35" s="20">
-        <f t="shared" si="1"/>
-        <v>72.246187188954877</v>
+      <c r="B35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.35050140000000002</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.31111936000000001</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1265817723461504</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.36140850000000002</v>
-      </c>
-      <c r="D36" s="5">
-        <v>4.4094E-3</v>
-      </c>
-      <c r="E36" s="20">
-        <f t="shared" si="1"/>
-        <v>81.963192271057295</v>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.5563061999999999</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3.1149056000000002</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1417059316340115</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.73961480000000002</v>
-      </c>
-      <c r="D37" s="4">
-        <v>7.9947000000000004E-3</v>
-      </c>
-      <c r="E37" s="20">
-        <f t="shared" si="1"/>
-        <v>92.513139955220325</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="15"/>
-      <c r="C38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-    </row>
-    <row r="42" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
-        <v>10</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1.5E-6</v>
-      </c>
-      <c r="D43" s="5">
-        <v>4.8699999999999998E-5</v>
-      </c>
-      <c r="E43" s="20">
-        <f>C43/D43</f>
-        <v>3.0800821355236142E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
-        <v>50</v>
-      </c>
-      <c r="C44" s="5">
-        <v>4.1999999999999996E-6</v>
-      </c>
-      <c r="D44" s="5">
-        <v>4.8699999999999998E-5</v>
-      </c>
-      <c r="E44" s="20">
-        <f t="shared" ref="E44:E57" si="2">C44/D44</f>
-        <v>8.6242299794661192E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
-        <v>100</v>
-      </c>
-      <c r="C45" s="5">
-        <v>6.9E-6</v>
-      </c>
-      <c r="D45" s="5">
-        <v>4.74E-5</v>
-      </c>
-      <c r="E45" s="20">
-        <f t="shared" si="2"/>
-        <v>0.14556962025316456</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C46" s="3">
-        <v>3.6699999999999998E-5</v>
-      </c>
-      <c r="D46" s="5">
-        <v>4.5099999999999998E-5</v>
-      </c>
-      <c r="E46" s="20">
-        <f t="shared" si="2"/>
-        <v>0.8137472283813747</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="18">
-        <v>1.8139999999999999E-4</v>
-      </c>
-      <c r="D47" s="5">
-        <v>5.8499999999999999E-5</v>
-      </c>
-      <c r="E47" s="20">
-        <f t="shared" si="2"/>
-        <v>3.1008547008547009</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3">
-        <v>3.5639999999999999E-4</v>
-      </c>
-      <c r="D48" s="5">
-        <v>4.9599999999999999E-5</v>
-      </c>
-      <c r="E48" s="20">
-        <f t="shared" si="2"/>
-        <v>7.185483870967742</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3">
-        <v>8.8929999999999999E-4</v>
-      </c>
-      <c r="D49" s="5">
-        <v>5.1900000000000001E-5</v>
-      </c>
-      <c r="E49" s="20">
-        <f t="shared" si="2"/>
-        <v>17.134874759152215</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1.7788000000000001E-3</v>
-      </c>
-      <c r="D50" s="8">
-        <v>6.1099999999999994E-5</v>
-      </c>
-      <c r="E50" s="20">
-        <f t="shared" si="2"/>
-        <v>29.112929623567926</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="8" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="3">
-        <v>3.9430999999999997E-3</v>
-      </c>
-      <c r="D51" s="5">
-        <v>6.8300000000000007E-5</v>
-      </c>
-      <c r="E51" s="20">
-        <f t="shared" si="2"/>
-        <v>57.732064421669094</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3">
-        <v>8.9481999999999999E-3</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2.7250000000000001E-4</v>
-      </c>
-      <c r="E52" s="20">
-        <f t="shared" si="2"/>
-        <v>32.837431192660546</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="17">
-        <v>1.8043799999999999E-2</v>
-      </c>
-      <c r="D53" s="5">
-        <v>4.2319999999999999E-4</v>
-      </c>
-      <c r="E53" s="20">
-        <f t="shared" si="2"/>
-        <v>42.636578449905478</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="3">
-        <v>3.4689699999999997E-2</v>
-      </c>
-      <c r="D54" s="5">
-        <v>6.1530000000000005E-4</v>
-      </c>
-      <c r="E54" s="20">
-        <f t="shared" si="2"/>
-        <v>56.378514545750029</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="3">
-        <v>8.8475200000000004E-2</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1.3469000000000001E-3</v>
-      </c>
-      <c r="E55" s="20">
-        <f t="shared" si="2"/>
-        <v>65.688024352216203</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.35477979999999998</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4.6439000000000003E-3</v>
-      </c>
-      <c r="E56" s="20">
-        <f t="shared" si="2"/>
-        <v>76.396950838734668</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.71045800000000003</v>
-      </c>
-      <c r="D57" s="4">
-        <v>8.1734000000000008E-3</v>
-      </c>
-      <c r="E57" s="20">
-        <f t="shared" si="2"/>
-        <v>86.923189859789062</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15"/>
-      <c r="C58" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="22"/>
+      <c r="D37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C13 D10" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parallel-Dev/OpenCL/Measurement.xlsx
+++ b/Parallel-Dev/OpenCL/Measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bandi\Desktop\Parallel\Parallel-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7086B-D2CC-489D-91F9-7E8DB9123E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C35EB-5F93-4849-BD40-0148F7AB4194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE2EECAB-CD40-4BEF-8949-81DD15AFB8AD}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -291,12 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,28 +558,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0208000000000001E-3</c:v>
+                  <c:v>1.024E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0528E-3</c:v>
+                  <c:v>1.0944000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0943999999999999E-3</c:v>
+                  <c:v>1.024E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3312E-3</c:v>
+                  <c:v>1.3183999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9616E-3</c:v>
+                  <c:v>4.0224E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.85376E-2</c:v>
+                  <c:v>2.9587199999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31112640000000003</c:v>
+                  <c:v>3.2091200000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1137792000000002</c:v>
+                  <c:v>3.2944512000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,28 +1152,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0560000000000001E-3</c:v>
+                  <c:v>1.1136E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1168E-3</c:v>
+                  <c:v>1.0336000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1168E-3</c:v>
+                  <c:v>9.2159999999999995E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2160000000000001E-3</c:v>
+                  <c:v>1.4080000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9776000000000004E-3</c:v>
+                  <c:v>3.8688E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.82624E-2</c:v>
+                  <c:v>2.8655999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31106879999999998</c:v>
+                  <c:v>3.2122880000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1134719999999998</c:v>
+                  <c:v>3.2946080000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,28 +1741,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0208000000000001E-3</c:v>
+                  <c:v>1.024E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2159999999999996E-4</c:v>
+                  <c:v>1.1263999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2159999999999996E-4</c:v>
+                  <c:v>1.1232E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3087999999999999E-3</c:v>
+                  <c:v>1.3312000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9135999999999997E-3</c:v>
+                  <c:v>3.9295999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8230399999999999E-2</c:v>
+                  <c:v>2.8435199999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31111936000000001</c:v>
+                  <c:v>3.2080640000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1149056000000002</c:v>
+                  <c:v>3.2941824000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,13 +4187,14 @@
   <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4236,11 +4231,11 @@
         <v>3.1999999999999999E-6</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0208000000000001E-3</v>
+        <v>1.024E-5</v>
       </c>
       <c r="E3" s="13">
         <f>C3/D3</f>
-        <v>3.1347962382445136E-3</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4251,11 +4246,11 @@
         <v>4.7999999999999998E-6</v>
       </c>
       <c r="D4" s="3">
-        <v>1.0528E-3</v>
+        <v>1.0944000000000001E-5</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E10" si="0">C4/D4</f>
-        <v>4.559270516717325E-3</v>
+        <v>0.43859649122807015</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4266,11 +4261,11 @@
         <v>3.8099999999999998E-5</v>
       </c>
       <c r="D5" s="3">
-        <v>1.0943999999999999E-3</v>
+        <v>1.024E-5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>3.4813596491228067E-2</v>
+        <v>3.7207031249999996</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4281,11 +4276,11 @@
         <v>3.5270000000000001E-4</v>
       </c>
       <c r="D6" s="3">
-        <v>1.3312E-3</v>
+        <v>1.3183999999999999E-5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>0.26494891826923078</v>
+        <v>26.752123786407768</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,11 +4291,11 @@
         <v>3.8509E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>3.9616E-3</v>
+        <v>4.0224E-5</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>0.97205674474959614</v>
+        <v>95.736376292760539</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4311,11 +4306,11 @@
         <v>3.4544100000000001E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>2.85376E-2</v>
+        <v>2.9587199999999998E-4</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>1.2104767044180309</v>
+        <v>116.75352855288774</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4326,11 +4321,11 @@
         <v>0.34499730000000001</v>
       </c>
       <c r="D9" s="3">
-        <v>0.31112640000000003</v>
+        <v>3.2091200000000002E-3</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>1.1088654000431979</v>
+        <v>107.50526624121254</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4340,12 +4335,12 @@
       <c r="C10" s="2">
         <v>3.4833254</v>
       </c>
-      <c r="D10" s="20">
-        <v>3.1137792000000002</v>
+      <c r="D10" s="6">
+        <v>3.2944512000000002E-2</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>1.1186809263803932</v>
+        <v>105.73310055404674</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4386,11 +4381,11 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="D16" s="3">
-        <v>1.0560000000000001E-3</v>
+        <v>1.1136E-5</v>
       </c>
       <c r="E16" s="13">
         <f>C16/D16</f>
-        <v>1.5151515151515149E-3</v>
+        <v>0.14367816091954022</v>
       </c>
       <c r="P16" t="s">
         <v>8</v>
@@ -4404,11 +4399,11 @@
         <v>4.7999999999999998E-6</v>
       </c>
       <c r="D17" s="3">
-        <v>1.1168E-3</v>
+        <v>1.0336000000000001E-5</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" ref="E17:E23" si="1">C17/D17</f>
-        <v>4.2979942693409734E-3</v>
+        <v>0.46439628482972134</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4419,11 +4414,11 @@
         <v>4.0599999999999998E-5</v>
       </c>
       <c r="D18" s="3">
-        <v>1.1168E-3</v>
+        <v>9.2159999999999995E-6</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>3.6353868194842404E-2</v>
+        <v>4.4053819444444446</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4434,26 +4429,26 @@
         <v>3.6519999999999999E-4</v>
       </c>
       <c r="D19" s="3">
-        <v>1.2160000000000001E-3</v>
+        <v>1.4080000000000001E-5</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>0.30032894736842103</v>
+        <v>25.937499999999996</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="11">
         <v>4.2450999999999999E-3</v>
       </c>
       <c r="D20" s="3">
-        <v>3.9776000000000004E-3</v>
+        <v>3.8688E-5</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>1.0672516090104585</v>
+        <v>109.72653019023987</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4464,11 +4459,11 @@
         <v>3.6039599999999998E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>2.82624E-2</v>
+        <v>2.8655999999999999E-4</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>1.2751783288043477</v>
+        <v>125.76633165829145</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4479,11 +4474,11 @@
         <v>0.36180420000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>0.31106879999999998</v>
+        <v>3.2122880000000002E-3</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>1.1631002530629881</v>
+        <v>112.63130827621931</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4494,11 +4489,11 @@
         <v>3.6291107</v>
       </c>
       <c r="D23" s="6">
-        <v>3.1134719999999998</v>
+        <v>3.2946080000000003E-2</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>1.1656153323363756</v>
+        <v>110.15303489823371</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4539,11 +4534,11 @@
         <v>1.5999999999999999E-6</v>
       </c>
       <c r="D29" s="3">
-        <v>1.0208000000000001E-3</v>
+        <v>1.024E-5</v>
       </c>
       <c r="E29" s="13">
         <f>C29/D29</f>
-        <v>1.5673981191222568E-3</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4554,11 +4549,11 @@
         <v>7.0999999999999998E-6</v>
       </c>
       <c r="D30" s="3">
-        <v>9.2159999999999996E-4</v>
+        <v>1.1263999999999999E-5</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" ref="E30:E36" si="2">C30/D30</f>
-        <v>7.7039930555555559E-3</v>
+        <v>0.63032670454545459</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4569,11 +4564,11 @@
         <v>3.9900000000000001E-5</v>
       </c>
       <c r="D31" s="3">
-        <v>9.2159999999999996E-4</v>
+        <v>1.1232E-5</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="2"/>
-        <v>4.3294270833333336E-2</v>
+        <v>3.5523504273504272</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4584,11 +4579,11 @@
         <v>3.5950000000000001E-4</v>
       </c>
       <c r="D32" s="3">
-        <v>1.3087999999999999E-3</v>
+        <v>1.3312000000000001E-5</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="2"/>
-        <v>0.27467909535452323</v>
+        <v>27.005709134615383</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4599,11 +4594,11 @@
         <v>3.4981000000000001E-3</v>
       </c>
       <c r="D33" s="3">
-        <v>3.9135999999999997E-3</v>
+        <v>3.9295999999999998E-5</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="2"/>
-        <v>0.89383176614881443</v>
+        <v>89.01923859934854</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4614,11 +4609,11 @@
         <v>3.5030100000000002E-2</v>
       </c>
       <c r="D34" s="3">
-        <v>2.8230399999999999E-2</v>
+        <v>2.8435199999999998E-4</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="2"/>
-        <v>1.2408644581727499</v>
+        <v>123.192732950709</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4629,11 +4624,11 @@
         <v>0.35050140000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>0.31111936000000001</v>
+        <v>3.2080640000000001E-3</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="2"/>
-        <v>1.1265817723461504</v>
+        <v>109.25636146909788</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4644,11 +4639,11 @@
         <v>3.5563061999999999</v>
       </c>
       <c r="D36" s="6">
-        <v>3.1149056000000002</v>
+        <v>3.2941824000000001E-2</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="2"/>
-        <v>1.1417059316340115</v>
+        <v>107.95717322756626</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Parallel-Dev/OpenCL/Measurement.xlsx
+++ b/Parallel-Dev/OpenCL/Measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bandi\Desktop\Parallel\Parallel-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C35EB-5F93-4849-BD40-0148F7AB4194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC942A82-0F05-4EA7-B53D-8679C2941EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE2EECAB-CD40-4BEF-8949-81DD15AFB8AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Subintervals</t>
   </si>
@@ -79,11 +79,26 @@
   <si>
     <t>100.000.000</t>
   </si>
+  <si>
+    <t>Error [2 - 1000] sin(x)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -277,6 +298,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2086,6 +2122,481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Approximation error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simpson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0.000000000">
+                  <c:v>134.804662347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0815266884000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1067886000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000E+00">
+                  <c:v>5.3990000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41914603890000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0E+00">
+                  <c:v>3.2000000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0E+00">
+                  <c:v>2.6E-14</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>7.6000000000000004E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0DE5-43BC-A11C-2C9CB5854B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rectangle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$16:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0.00000000000">
+                  <c:v>215.21141714519101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0335110574445</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000000000">
+                  <c:v>0.94895129643244003</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000000000">
+                  <c:v>8.7447545294900994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000000000000">
+                  <c:v>8.6716448782290009E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000000000000">
+                  <c:v>8.6643352466500003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000E+00">
+                  <c:v>8.6636042841999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.6635311300000002E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0DE5-43BC-A11C-2C9CB5854B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoidal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$29:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0.000000000000">
+                  <c:v>128.576186474043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3699879903296601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2598989720955002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1231462375299995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.1218111150000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000E+00">
+                  <c:v>8.1217953999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.1217100000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.0620000000000002E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0DE5-43BC-A11C-2C9CB5854B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1556341344"/>
+        <c:axId val="1556344704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1556341344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556344704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1556344704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556341344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2206,6 +2717,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3239,6 +3790,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3759,13 +4826,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
@@ -3795,13 +4862,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -3831,15 +4898,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3859,6 +4926,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39C7F7A-52B9-2D78-117B-AE1E0ECA476A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4187,7 +5290,7 @@
   <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4196,15 +5299,17 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
@@ -4219,7 +5324,9 @@
       <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -4237,6 +5344,9 @@
         <f>C3/D3</f>
         <v>0.3125</v>
       </c>
+      <c r="F3" s="17">
+        <v>134.804662347</v>
+      </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
@@ -4252,6 +5362,9 @@
         <f t="shared" ref="E4:E10" si="0">C4/D4</f>
         <v>0.43859649122807015</v>
       </c>
+      <c r="F4" s="15">
+        <v>8.0815266884000003</v>
+      </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
@@ -4267,6 +5380,9 @@
         <f t="shared" si="0"/>
         <v>3.7207031249999996</v>
       </c>
+      <c r="F5" s="15">
+        <v>6.1067886000000004E-3</v>
+      </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -4282,6 +5398,9 @@
         <f t="shared" si="0"/>
         <v>26.752123786407768</v>
       </c>
+      <c r="F6" s="21">
+        <v>5.3990000000000001E-7</v>
+      </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
@@ -4297,6 +5416,9 @@
         <f t="shared" si="0"/>
         <v>95.736376292760539</v>
       </c>
+      <c r="F7" s="15">
+        <v>0.41914603890000002</v>
+      </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -4312,6 +5434,9 @@
         <f t="shared" si="0"/>
         <v>116.75352855288774</v>
       </c>
+      <c r="F8" s="22">
+        <v>3.2000000000000002E-14</v>
+      </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
@@ -4327,6 +5452,9 @@
         <f t="shared" si="0"/>
         <v>107.50526624121254</v>
       </c>
+      <c r="F9" s="22">
+        <v>2.6E-14</v>
+      </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -4342,22 +5470,26 @@
         <f t="shared" si="0"/>
         <v>105.73310055404674</v>
       </c>
+      <c r="F10" s="3">
+        <v>7.6000000000000004E-14</v>
+      </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
@@ -4372,6 +5504,9 @@
       <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
@@ -4387,11 +5522,14 @@
         <f>C16/D16</f>
         <v>0.14367816091954022</v>
       </c>
+      <c r="F16" s="16">
+        <v>215.21141714519101</v>
+      </c>
       <c r="P16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>100</v>
       </c>
@@ -4405,8 +5543,11 @@
         <f t="shared" ref="E17:E23" si="1">C17/D17</f>
         <v>0.46439628482972134</v>
       </c>
+      <c r="F17" s="18">
+        <v>11.0335110574445</v>
+      </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>1000</v>
       </c>
@@ -4420,8 +5561,11 @@
         <f t="shared" si="1"/>
         <v>4.4053819444444446</v>
       </c>
+      <c r="F18" s="23">
+        <v>0.94895129643244003</v>
+      </c>
     </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
@@ -4435,8 +5579,11 @@
         <f t="shared" si="1"/>
         <v>25.937499999999996</v>
       </c>
+      <c r="F19" s="23">
+        <v>8.7447545294900994E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
@@ -4450,8 +5597,11 @@
         <f t="shared" si="1"/>
         <v>109.72653019023987</v>
       </c>
+      <c r="F20" s="23">
+        <v>8.6716448782290009E-3</v>
+      </c>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
@@ -4465,8 +5615,11 @@
         <f t="shared" si="1"/>
         <v>125.76633165829145</v>
       </c>
+      <c r="F21" s="23">
+        <v>8.6643352466500003E-4</v>
+      </c>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
@@ -4480,8 +5633,11 @@
         <f t="shared" si="1"/>
         <v>112.63130827621931</v>
       </c>
+      <c r="F22" s="19">
+        <v>8.6636042841999996E-5</v>
+      </c>
     </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -4495,24 +5651,28 @@
         <f t="shared" si="1"/>
         <v>110.15303489823371</v>
       </c>
+      <c r="F23" s="3">
+        <v>8.6635311300000002E-6</v>
+      </c>
     </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="26"/>
     </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16" t="s">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
@@ -4525,8 +5685,11 @@
       <c r="E28" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F28" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>10</v>
       </c>
@@ -4540,8 +5703,11 @@
         <f>C29/D29</f>
         <v>0.15625</v>
       </c>
+      <c r="F29" s="18">
+        <v>128.576186474043</v>
+      </c>
     </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>100</v>
       </c>
@@ -4555,8 +5721,11 @@
         <f t="shared" ref="E30:E36" si="2">C30/D30</f>
         <v>0.63032670454545459</v>
       </c>
+      <c r="F30" s="24">
+        <v>2.3699879903296601</v>
+      </c>
     </row>
-    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>1000</v>
       </c>
@@ -4570,8 +5739,11 @@
         <f t="shared" si="2"/>
         <v>3.5523504273504272</v>
       </c>
+      <c r="F31" s="24">
+        <v>8.2598989720955002E-2</v>
+      </c>
     </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4585,8 +5757,11 @@
         <f t="shared" si="2"/>
         <v>27.005709134615383</v>
       </c>
+      <c r="F32" s="24">
+        <v>8.1231462375299995E-4</v>
+      </c>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4600,8 +5775,11 @@
         <f t="shared" si="2"/>
         <v>89.01923859934854</v>
       </c>
+      <c r="F33" s="3">
+        <v>8.1218111150000005E-6</v>
+      </c>
     </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
@@ -4615,8 +5793,11 @@
         <f t="shared" si="2"/>
         <v>123.192732950709</v>
       </c>
+      <c r="F34" s="20">
+        <v>8.1217953999999998E-8</v>
+      </c>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
@@ -4630,8 +5811,11 @@
         <f t="shared" si="2"/>
         <v>109.25636146909788</v>
       </c>
+      <c r="F35" s="3">
+        <v>8.1217100000000001E-10</v>
+      </c>
     </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
@@ -4645,22 +5829,25 @@
         <f t="shared" si="2"/>
         <v>107.95717322756626</v>
       </c>
+      <c r="F36" s="3">
+        <v>8.0620000000000002E-12</v>
+      </c>
     </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="10"/>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
